--- a/data/trans_camb/P55_4-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P55_4-Urba-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>9,88</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-6,67</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,22</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>9.080440973360082</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-7.425217012700525</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.4300289547693126</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-1,41; 26,79</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-17,38; 2,92</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-6,43; 11,17</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-1.865049257293958</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-18.15848679895197</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-7.271181900943609</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>13,76%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-9,16%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1,69%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>24.86231188955632</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>2.789152505978022</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>9.961309680539218</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-1,57; 45,08</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-22,78; 4,25</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-8,38; 17,19</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.125692283094615</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>-0.1019730053111109</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.005927824870872496</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-5,82</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-21,39</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-13,8</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.02178931728302845</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.2389387057165033</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.09585985851170017</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-15,73; 4,63</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-33,74; -8,98</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-23,7; -5,73</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.4241318544483336</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.04101193588277119</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.1507195499761688</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-7,04%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-27,7%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-17,27%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>-5.833978083306379</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-20.67667982797373</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-13.40783849850395</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-18,23; 5,95</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-42,01; -12,77</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-28,76; -7,58</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-15.54435105773451</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-32.23886940859613</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-22.57079080683839</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>18,99</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,41</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>10,14</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>4.274975337806685</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>-8.580258214619866</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>-5.84301002431062</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-9,53; 56,33</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-23,24; 24,43</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-10,31; 34,69</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>-0.07005995090851737</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.267735740626393</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.1671371590670648</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>31,01%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,67%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>16,57%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.1789706952537373</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.4008781304388976</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.2740300773466396</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-12,01; 178,06</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-34,54; 49,55</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-14,32; 76,46</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.05345252494386169</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>-0.1247863878999818</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>-0.0776527241183043</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,93 +775,209 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>4,55</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-11,87</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-3,89</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>19.0789671302589</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>0.4406938265103633</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>10.08256964637679</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-3,58; 15,62</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-18,61; -4,18</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-9,5; 3,28</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-8.703056987692351</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-24.67541242517324</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-9.978162424574769</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>6,06%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-16,15%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-5,24%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>54.98438980604846</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>24.48797659546875</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>33.07758205968432</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-4,4; 23,66</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-24,43; -5,78</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-12,29; 4,41</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>0.3055206770865229</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0.007227183915872922</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0.1633184421809142</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.1020751034584418</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.3467656516690472</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.133295168533706</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>1.74709045756106</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.520762436224717</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.7580743207139207</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>4.002177728740808</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-11.97644253966421</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-4.199802317850843</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-4.169677118965072</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-18.80510627071751</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-9.524008263869455</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>14.49053828595515</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>-4.317270070869752</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>2.43794669687788</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>0.05281687314509396</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>-0.1630869151806412</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>-0.05631608815187013</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.0510190120316559</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.2463502581117751</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.1228482761497303</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.2138388598340019</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>-0.06214541096875903</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.03488315584654422</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -936,11 +985,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
